--- a/sdk/sdk-resources/com/constellio/app/services/schemas/bulkImport/RetentionRulesRecordsImportServicesAcceptanceTest-retentionRule.xlsx
+++ b/sdk/sdk-resources/com/constellio/app/services/schemas/bulkImport/RetentionRulesRecordsImportServicesAcceptanceTest-retentionRule.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Constellio\constellio\sdk\sdk-resources\com\constellio\app\services\schemas\bulkImport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="436"/>
+    <workbookView xWindow="32460" yWindow="40" windowWidth="38400" windowHeight="23540" tabRatio="436"/>
   </bookViews>
   <sheets>
     <sheet name="retentionRule" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,17 +178,7 @@
 item=1</t>
   </si>
   <si>
-    <t>activeRetentionPeriodComment
-structure=copyRetentionRules
-item=1</t>
-  </si>
-  <si>
     <t>semiActiveRetentionPeriod
-structure=copyRetentionRules
-item=1</t>
-  </si>
-  <si>
-    <t>semiActiveRetentionPeriodComment
 structure=copyRetentionRules
 item=1</t>
   </si>
@@ -230,17 +220,7 @@
 item=2</t>
   </si>
   <si>
-    <t>activeRetentionPeriodComment
-structure=copyRetentionRules
-item=2</t>
-  </si>
-  <si>
     <t>semiActiveRetentionPeriod
-structure=copyRetentionRules
-item=2</t>
-  </si>
-  <si>
-    <t>semiActiveRetentionPeriodComment
 structure=copyRetentionRules
 item=2</t>
   </si>
@@ -282,17 +262,7 @@
 item=3</t>
   </si>
   <si>
-    <t>activeRetentionPeriodComment
-structure=copyRetentionRules
-item=3</t>
-  </si>
-  <si>
     <t>semiActiveRetentionPeriod
-structure=copyRetentionRules
-item=3</t>
-  </si>
-  <si>
-    <t>semiActiveRetentionPeriodComment
 structure=copyRetentionRules
 item=3</t>
   </si>
@@ -338,6 +308,36 @@
   </si>
   <si>
     <t>1;D</t>
+  </si>
+  <si>
+    <t>activeRetentionComment
+structure=copyRetentionRules
+item=1</t>
+  </si>
+  <si>
+    <t>semiActiveRetentionComment
+structure=copyRetentionRules
+item=1</t>
+  </si>
+  <si>
+    <t>semiActiveRetentionComment
+structure=copyRetentionRules
+item=3</t>
+  </si>
+  <si>
+    <t>activeRetentionComment
+structure=copyRetentionRules
+item=3</t>
+  </si>
+  <si>
+    <t>activeRetentionComment
+structure=copyRetentionRules
+item=2</t>
+  </si>
+  <si>
+    <t>semiActiveRetentionComment
+structure=copyRetentionRules
+item=2</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -813,7 +813,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -837,59 +837,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" customWidth="1"/>
-    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" customWidth="1"/>
-    <col min="18" max="18" width="17.6328125" customWidth="1"/>
-    <col min="19" max="19" width="22.90625" customWidth="1"/>
-    <col min="20" max="20" width="16.36328125" customWidth="1"/>
-    <col min="21" max="21" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.08984375" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="25" width="11.1796875" customWidth="1"/>
-    <col min="26" max="26" width="13.36328125" customWidth="1"/>
-    <col min="27" max="27" width="12.54296875" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" customWidth="1"/>
-    <col min="29" max="30" width="11.90625" customWidth="1"/>
-    <col min="31" max="31" width="12.453125" customWidth="1"/>
-    <col min="32" max="32" width="12.1796875" customWidth="1"/>
-    <col min="33" max="33" width="11.7265625" customWidth="1"/>
-    <col min="34" max="34" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="27.5" customWidth="1"/>
+    <col min="17" max="17" width="27.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="35.33203125" customWidth="1"/>
+    <col min="20" max="20" width="34.5" customWidth="1"/>
+    <col min="21" max="21" width="34.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="43.83203125" customWidth="1"/>
+    <col min="24" max="24" width="26.1640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="28" width="12.5" customWidth="1"/>
+    <col min="29" max="30" width="11.83203125" customWidth="1"/>
+    <col min="31" max="31" width="12.5" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" customWidth="1"/>
     <col min="35" max="35" width="11" customWidth="1"/>
-    <col min="36" max="36" width="12.81640625" customWidth="1"/>
-    <col min="37" max="37" width="11.08984375" customWidth="1"/>
-    <col min="38" max="38" width="13.1796875" customWidth="1"/>
-    <col min="39" max="39" width="12.6328125" customWidth="1"/>
-    <col min="40" max="40" width="11.26953125" customWidth="1"/>
-    <col min="41" max="41" width="12.54296875" customWidth="1"/>
-    <col min="42" max="42" width="12.26953125" customWidth="1"/>
-    <col min="43" max="43" width="11.26953125" customWidth="1"/>
-    <col min="44" max="44" width="12.26953125" customWidth="1"/>
-    <col min="45" max="45" width="11.54296875" customWidth="1"/>
-    <col min="46" max="46" width="12.7265625" customWidth="1"/>
-    <col min="47" max="47" width="11.08984375" customWidth="1"/>
-    <col min="48" max="48" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" customWidth="1"/>
+    <col min="38" max="38" width="13.1640625" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" customWidth="1"/>
+    <col min="40" max="40" width="11.33203125" customWidth="1"/>
+    <col min="41" max="41" width="12.5" customWidth="1"/>
+    <col min="42" max="42" width="12.33203125" customWidth="1"/>
+    <col min="43" max="43" width="11.33203125" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" customWidth="1"/>
+    <col min="45" max="45" width="11.5" customWidth="1"/>
+    <col min="46" max="46" width="12.6640625" customWidth="1"/>
+    <col min="47" max="47" width="11.1640625" customWidth="1"/>
+    <col min="48" max="48" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:48" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="3" customFormat="1" ht="127.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -933,13 +933,13 @@
         <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>42</v>
@@ -957,85 +957,85 @@
         <v>46</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="48">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R3">
         <v>123</v>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
@@ -1145,10 +1145,10 @@
         <v>39</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="12.5" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R4">
         <v>123</v>
@@ -1204,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="T4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="V4">
         <v>999</v>
@@ -1246,7 +1246,7 @@
         <v>20</v>
       </c>
       <c r="AN4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AP4">
         <v>3</v>
@@ -1261,11 +1261,15 @@
         <v>27</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/sdk/sdk-resources/com/constellio/app/services/schemas/bulkImport/RetentionRulesRecordsImportServicesAcceptanceTest-retentionRule.xlsx
+++ b/sdk/sdk-resources/com/constellio/app/services/schemas/bulkImport/RetentionRulesRecordsImportServicesAcceptanceTest-retentionRule.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisbaril/IdeaProjects/constellio-dev/constellio/sdk/sdk-resources/com/constellio/app/services/schemas/bulkImport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="40" windowWidth="38400" windowHeight="23540" tabRatio="436"/>
+    <workbookView xWindow="13560" yWindow="29260" windowWidth="37760" windowHeight="22520" tabRatio="436"/>
   </bookViews>
   <sheets>
     <sheet name="retentionRule" sheetId="6" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>title</t>
   </si>
@@ -769,7 +774,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -813,7 +818,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -837,11 +842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
@@ -889,7 +894,7 @@
     <col min="48" max="48" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:48" s="3" customFormat="1" ht="127.5" customHeight="1">
+    <row r="2" spans="1:48" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="48">
+    <row r="3" spans="1:48" ht="39" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1144,11 +1149,14 @@
       <c r="AK3" t="s">
         <v>39</v>
       </c>
+      <c r="AM3" t="s">
+        <v>20</v>
+      </c>
       <c r="AV3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="12.5" customHeight="1">
+    <row r="4" spans="1:48" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1266,10 +1274,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/sdk/sdk-resources/com/constellio/app/services/schemas/bulkImport/RetentionRulesRecordsImportServicesAcceptanceTest-retentionRule.xlsx
+++ b/sdk/sdk-resources/com/constellio/app/services/schemas/bulkImport/RetentionRulesRecordsImportServicesAcceptanceTest-retentionRule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="29260" windowWidth="37760" windowHeight="22520" tabRatio="436"/>
+    <workbookView xWindow="12800" yWindow="29260" windowWidth="38400" windowHeight="22520" tabRatio="436"/>
   </bookViews>
   <sheets>
     <sheet name="retentionRule" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>title</t>
   </si>
@@ -774,7 +774,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -818,7 +818,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -843,7 +843,7 @@
   <dimension ref="A2:AV4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1149,9 +1149,6 @@
       <c r="AK3" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" t="s">
-        <v>20</v>
-      </c>
       <c r="AV3" s="1" t="s">
         <v>67</v>
       </c>
